--- a/multistreaks.xlsx
+++ b/multistreaks.xlsx
@@ -7,8 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAConceed1TeamHConceed1+" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAConceed1TeamHConceed2+" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAscoresTeamHscores1+" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAscores1TeamHscores2+" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAscores1TeamHscores3+" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAscores1TeamHscores4+" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAscores2TeamHscores1+" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAscores2TeamHscores2+" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAscores2TeamHscores3+" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAscores2TeamHscores4+" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAscores3TeamHscores1+" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAscores3TeamHscores2+" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAscores3TeamHscores3+" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TAscores3TeamHscores4+" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -442,7 +452,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -454,12 +464,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7/1</t>
+          <t>6/0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -471,12 +481,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5/4</t>
+          <t>3/0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -488,12 +498,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4/1</t>
+          <t>5/2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -505,12 +515,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3/2</t>
+          <t>3/1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -522,12 +532,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4/1</t>
+          <t>8/0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -539,12 +549,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5/1</t>
+          <t>5/2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -556,12 +566,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3/1</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -573,12 +583,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3/4</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -590,12 +600,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4/2</t>
+          <t>5/1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -607,12 +617,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2/3</t>
+          <t>3/2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -624,12 +634,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3/1</t>
+          <t>6/1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -641,12 +651,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>5/0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -658,12 +668,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5/2</t>
+          <t>6/1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -675,12 +685,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3/1</t>
+          <t>2/3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -692,12 +702,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6/1</t>
+          <t>4/1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -709,12 +719,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4/1</t>
+          <t>8/0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -726,12 +736,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>5/4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -743,12 +753,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/2</t>
+          <t>3/0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
         </is>
       </c>
     </row>
@@ -760,12 +770,1074 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4/2</t>
+          <t>3/1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed1+</t>
+          <t>TAscoresTeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPatt</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5/0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPatt</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPatt</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores4+</t>
         </is>
       </c>
     </row>
@@ -796,7 +1868,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -808,12 +1880,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6/2</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -825,12 +1897,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5/1</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -842,12 +1914,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -864,7 +1936,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -876,12 +1948,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2/3</t>
+          <t>5/3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -893,12 +1965,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>3/4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -910,12 +1982,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3/4</t>
+          <t>0/2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -927,12 +1999,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1/2</t>
+          <t>1/3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -944,12 +2016,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1/3</t>
+          <t>2/4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -961,12 +2033,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1/3</t>
+          <t>0/5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -978,12 +2050,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1/3</t>
+          <t>4/3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -995,12 +2067,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/2</t>
+          <t>3/2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -1012,12 +2084,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/3</t>
+          <t>1/6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -1029,12 +2101,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0/7</t>
+          <t>1/4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -1046,12 +2118,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6/3</t>
+          <t>0/5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -1063,12 +2135,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3/2</t>
+          <t>5/3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -1080,12 +2152,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1/4</t>
+          <t>3/6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -1097,12 +2169,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2/3</t>
+          <t>3/0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores1TeamHscores2+</t>
         </is>
       </c>
     </row>
@@ -1114,12 +2186,2490 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPatt</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1/7</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2/6</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2/7</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPatt</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1/7</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TAscores1TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPatt</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4/2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2/1</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5/0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6/0</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TAConceed1TeamHConceed2+</t>
+          <t>TAscores2TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPatt</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores2+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPatt</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores3+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPatt</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TAscores2TeamHscores4+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AwayGamesPatt</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>FeralpiSalo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5/0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Lecco</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TAscores3TeamHscores1+</t>
         </is>
       </c>
     </row>
